--- a/Haydn Portwine-Allen/VGA223_Haydn.Portwine-Allen_A1.xlsx
+++ b/Haydn Portwine-Allen/VGA223_Haydn.Portwine-Allen_A1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70550BB-5995-432A-B89A-6505D38B5850}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2181A7-DB11-4C34-A026-2C6263753029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asset Sheet" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>ESTIMATED</t>
   </si>
@@ -254,13 +256,25 @@
     <t xml:space="preserve">  June 3rd</t>
   </si>
   <si>
-    <t>currently doing</t>
-  </si>
-  <si>
     <t>(not working, need to redo)</t>
   </si>
   <si>
     <t>1 hour* needs texture</t>
+  </si>
+  <si>
+    <t>(idea scrapped I believe)</t>
+  </si>
+  <si>
+    <t>incomplete</t>
+  </si>
+  <si>
+    <t>incomplete due to hdrp switch</t>
+  </si>
+  <si>
+    <t>back burned for assignments</t>
+  </si>
+  <si>
+    <t>6 hours (low poly complete, no unwrap)</t>
   </si>
 </sst>
 </file>
@@ -1294,8 +1308,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="BudgetSummary" displayName="BudgetSummary" ref="B3:H20" totalsRowCount="1" headerRowDxfId="11">
-  <autoFilter ref="B3:H19" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="BudgetSummary" displayName="BudgetSummary" ref="B3:H21" totalsRowCount="1" headerRowDxfId="11">
+  <autoFilter ref="B3:H20" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Asset" dataDxfId="10" totalsRowDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ESTIMATED" totalsRowDxfId="5"/>
@@ -1523,10 +1537,10 @@
     <tabColor theme="5"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1537,7 +1551,7 @@
     <col min="4" max="4" width="14.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="102.28515625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1763,7 +1777,7 @@
         <v>19</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H12" s="39" t="s">
         <v>51</v>
@@ -1784,7 +1798,7 @@
         <v>19</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13" s="39" t="s">
         <v>54</v>
@@ -1807,7 +1821,9 @@
       <c r="F14" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="21"/>
+      <c r="G14" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="H14" s="10" t="s">
         <v>60</v>
       </c>
@@ -1827,7 +1843,9 @@
       <c r="F15" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="21"/>
+      <c r="G15" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="H15" s="39" t="s">
         <v>55</v>
       </c>
@@ -1848,7 +1866,7 @@
         <v>19</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" s="39" t="s">
         <v>56</v>
@@ -1869,7 +1887,9 @@
       <c r="F17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="21"/>
+      <c r="G17" s="21" t="s">
+        <v>71</v>
+      </c>
       <c r="H17" s="39" t="s">
         <v>57</v>
       </c>
@@ -1890,7 +1910,9 @@
       <c r="F18" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="21" t="s">
+        <v>72</v>
+      </c>
       <c r="H18" s="39" t="s">
         <v>58</v>
       </c>
@@ -1909,27 +1931,34 @@
       <c r="F19" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="21"/>
+      <c r="G19" s="21" t="s">
+        <v>73</v>
+      </c>
       <c r="H19" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="30">
+        <f>BudgetSummary[[#This Row],[ESTIMATED]]-BudgetSummary[[#This Row],[ACTUAL]]</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
@@ -1982,9 +2011,10 @@
     </row>
     <row r="29" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
@@ -2004,23 +2034,32 @@
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
     </row>
-    <row r="33" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
     </row>
-    <row r="34" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
     </row>
-    <row r="35" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="10"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
